--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample05-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample05-from-config-file.xlsx
@@ -6,6 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
+    <sheet name="ssss" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Invoice'!$A$5:$K$5</definedName>
@@ -764,4 +765,15 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample05-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample05-from-config-file.xlsx
@@ -6,7 +6,6 @@
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
-    <sheet name="ssss" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Invoice'!$A$5:$K$5</definedName>
@@ -65,7 +64,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Luís, Gonçalves</t>
+    <t xml:space="preserve">  Luís  , Gonçalves</t>
   </si>
   <si>
     <t>+55 (12) 3923-5555</t>
@@ -461,7 +460,7 @@
   <cols>
     <col min="1" max="1" width="5.39577102661133" customWidth="1"/>
     <col min="2" max="2" width="10.8190710885184" customWidth="1"/>
-    <col min="3" max="3" width="17.1761512756348" customWidth="1"/>
+    <col min="3" max="3" width="18.1703834533691" customWidth="1"/>
     <col min="4" max="4" width="16.9360711233956" customWidth="1"/>
     <col min="5" max="5" width="19.7188088553292" customWidth="1"/>
     <col min="6" max="6" width="26.0413534981864" customWidth="1"/>
@@ -765,15 +764,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample05-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample05-from-config-file.xlsx
@@ -318,7 +318,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -370,12 +370,6 @@
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" xfId="17" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -413,7 +407,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -458,17 +452,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.39577102661133" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="10.8190710885184" customWidth="1"/>
-    <col min="3" max="3" width="18.1703834533691" customWidth="1"/>
+    <col min="3" max="3" width="16.4096581595285" customWidth="1"/>
     <col min="4" max="4" width="16.9360711233956" customWidth="1"/>
     <col min="5" max="5" width="19.7188088553292" customWidth="1"/>
     <col min="6" max="6" width="26.0413534981864" customWidth="1"/>
     <col min="7" max="7" width="18.1758411952427" customWidth="1"/>
-    <col min="8" max="8" width="8.32992172241211" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="10.8190400259835" customWidth="1"/>
     <col min="10" max="10" width="14.2115238734654" customWidth="1"/>
-    <col min="11" max="11" width="8.23375374930245" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="100.5" customHeight="1"/>
@@ -584,7 +578,7 @@
       <c r="B6" s="10">
         <v>40248</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -619,7 +613,7 @@
       <c r="B7" s="11">
         <v>40248</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="17" t="s">
@@ -654,7 +648,7 @@
       <c r="B8" s="10">
         <v>41178</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -689,7 +683,7 @@
       <c r="B9" s="11">
         <v>41178</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -724,7 +718,7 @@
       <c r="B10" s="10">
         <v>40713</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="16" t="s">
